--- a/data/trans_orig/IP07A19-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07A19-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{26A2F72F-6D76-4FDB-965A-E60367974D42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2C36815-B038-4234-B0EE-9911E1B6BCF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4920F2D9-AEB7-4DC9-BCF7-2011E41D031C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1F70E3DF-483D-4538-B207-07CEA88D5495}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="718">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="730">
   <si>
     <t>Menores según frecuencia de que le haya gustado ir al colegio en 2007 (Tasa respuesta: 47,1%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -76,10 +76,10 @@
     <t>16,14%</t>
   </si>
   <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>38,56%</t>
   </si>
   <si>
     <t>11,45%</t>
@@ -88,2110 +88,2146 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>34,58%</t>
+    <t>29,99%</t>
   </si>
   <si>
     <t>13,7%</t>
   </si>
   <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>43,51%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>66,81%</t>
+  </si>
+  <si>
+    <t>67,45%</t>
+  </si>
+  <si>
+    <t>42,44%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>55,98%</t>
+  </si>
+  <si>
+    <t>40,3%</t>
+  </si>
+  <si>
+    <t>71,63%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>43,81%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>41,81%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>46,92%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>57,44%</t>
+  </si>
+  <si>
+    <t>52,15%</t>
+  </si>
+  <si>
+    <t>39,53%</t>
+  </si>
+  <si>
+    <t>63,01%</t>
+  </si>
+  <si>
+    <t>49,15%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>56,42%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>42,16%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>50,23%</t>
+  </si>
+  <si>
+    <t>51,2%</t>
+  </si>
+  <si>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>58,87%</t>
+  </si>
+  <si>
+    <t>46,8%</t>
+  </si>
+  <si>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>52,35%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>52,4%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>38,0%</t>
+  </si>
+  <si>
+    <t>43,94%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>53,78%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>49,22%</t>
+  </si>
+  <si>
+    <t>41,73%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>48,39%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>39,15%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>45,43%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>53,36%</t>
+  </si>
+  <si>
+    <t>42,33%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>51,83%</t>
+  </si>
+  <si>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>50,35%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>48,49%</t>
+  </si>
+  <si>
+    <t>47,34%</t>
+  </si>
+  <si>
+    <t>42,82%</t>
+  </si>
+  <si>
+    <t>51,69%</t>
+  </si>
+  <si>
+    <t>45,83%</t>
+  </si>
+  <si>
+    <t>42,94%</t>
+  </si>
+  <si>
+    <t>49,31%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de que le haya gustado ir al colegio en 2012 (Tasa respuesta: 44,78%)</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>66,0%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>50,75%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>51,22%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>65,75%</t>
+  </si>
+  <si>
+    <t>64,5%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>51,86%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>71,31%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>49,43%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>32,17%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>45,1%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
+  </si>
+  <si>
+    <t>53,45%</t>
+  </si>
+  <si>
+    <t>42,93%</t>
+  </si>
+  <si>
+    <t>65,01%</t>
+  </si>
+  <si>
+    <t>49,11%</t>
+  </si>
+  <si>
+    <t>41,48%</t>
+  </si>
+  <si>
+    <t>56,62%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>49,64%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>46,97%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>44,9%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>48,91%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>44,8%</t>
+  </si>
+  <si>
+    <t>37,2%</t>
+  </si>
+  <si>
+    <t>53,4%</t>
+  </si>
+  <si>
+    <t>38,44%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>46,22%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>46,79%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>45,72%</t>
+  </si>
+  <si>
+    <t>55,85%</t>
+  </si>
+  <si>
+    <t>46,65%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>56,97%</t>
+  </si>
+  <si>
+    <t>46,17%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>38,39%</t>
+  </si>
+  <si>
+    <t>44,31%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>52,85%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>56,38%</t>
+  </si>
+  <si>
+    <t>45,67%</t>
+  </si>
+  <si>
+    <t>39,01%</t>
+  </si>
+  <si>
+    <t>51,8%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>40,17%</t>
+  </si>
+  <si>
+    <t>41,87%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>38,76%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>41,95%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>44,36%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>42,29%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de que le haya gustado ir al colegio en 2016 (Tasa respuesta: 47,13%)</t>
+  </si>
+  <si>
+    <t>62,17%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>61,0%</t>
+  </si>
+  <si>
+    <t>47,52%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>65,59%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>46,59%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>58,23%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>44,37%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>59,71%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>41,58%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>50,18%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>42,62%</t>
+  </si>
+  <si>
+    <t>39,8%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>52,03%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>51,04%</t>
+  </si>
+  <si>
+    <t>39,17%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>46,24%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>36,64%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>45,26%</t>
+  </si>
+  <si>
+    <t>39,65%</t>
+  </si>
+  <si>
+    <t>47,51%</t>
+  </si>
+  <si>
+    <t>38,14%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>43,67%</t>
+  </si>
+  <si>
+    <t>42,46%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>50,19%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>46,87%</t>
+  </si>
+  <si>
+    <t>41,04%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>46,51%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>41,66%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>50,44%</t>
+  </si>
+  <si>
+    <t>38,94%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>45,89%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>45,04%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>42,69%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>41,21%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
     <t>4,74%</t>
   </si>
   <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
-    <t>43,51%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>67,35%</t>
-  </si>
-  <si>
-    <t>67,45%</t>
-  </si>
-  <si>
-    <t>41,29%</t>
-  </si>
-  <si>
-    <t>84,2%</t>
-  </si>
-  <si>
-    <t>55,98%</t>
-  </si>
-  <si>
-    <t>41,24%</t>
-  </si>
-  <si>
-    <t>71,92%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>46,95%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>41,31%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>46,92%</t>
-  </si>
-  <si>
-    <t>36,91%</t>
-  </si>
-  <si>
-    <t>56,58%</t>
-  </si>
-  <si>
-    <t>52,15%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
-  </si>
-  <si>
-    <t>64,08%</t>
-  </si>
-  <si>
-    <t>49,15%</t>
-  </si>
-  <si>
-    <t>42,28%</t>
-  </si>
-  <si>
-    <t>56,83%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>39,66%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>42,16%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
-  </si>
-  <si>
-    <t>51,2%</t>
-  </si>
-  <si>
-    <t>43,08%</t>
-  </si>
-  <si>
-    <t>58,73%</t>
-  </si>
-  <si>
-    <t>46,8%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>52,42%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>52,41%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>43,94%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>48,52%</t>
-  </si>
-  <si>
-    <t>41,73%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>48,12%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>37,03%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>36,67%</t>
-  </si>
-  <si>
-    <t>53,63%</t>
-  </si>
-  <si>
-    <t>42,33%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>51,44%</t>
-  </si>
-  <si>
-    <t>43,95%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
-  </si>
-  <si>
-    <t>50,13%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>40,42%</t>
-  </si>
-  <si>
-    <t>48,68%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>43,2%</t>
-  </si>
-  <si>
-    <t>52,06%</t>
-  </si>
-  <si>
-    <t>45,83%</t>
-  </si>
-  <si>
-    <t>42,43%</t>
-  </si>
-  <si>
-    <t>48,66%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de que le haya gustado ir al colegio en 2012 (Tasa respuesta: 44,78%)</t>
-  </si>
-  <si>
-    <t>39,7%</t>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>47,24%</t>
+  </si>
+  <si>
+    <t>39,62%</t>
+  </si>
+  <si>
+    <t>56,07%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>46,5%</t>
+  </si>
+  <si>
+    <t>38,2%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>46,38%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>43,38%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
   </si>
   <si>
     <t>17,09%</t>
   </si>
   <si>
-    <t>62,89%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>53,41%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>49,96%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>70,23%</t>
-  </si>
-  <si>
-    <t>64,5%</t>
-  </si>
-  <si>
-    <t>37,34%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>51,86%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>69,7%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>44,91%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>45,1%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>55,45%</t>
-  </si>
-  <si>
-    <t>53,45%</t>
-  </si>
-  <si>
-    <t>42,82%</t>
-  </si>
-  <si>
-    <t>65,16%</t>
-  </si>
-  <si>
-    <t>49,11%</t>
-  </si>
-  <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>56,27%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>50,8%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>45,72%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>44,78%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>49,05%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>40,74%</t>
-  </si>
-  <si>
-    <t>44,8%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
-  </si>
-  <si>
-    <t>53,6%</t>
-  </si>
-  <si>
-    <t>38,44%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>46,16%</t>
-  </si>
-  <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>47,52%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>56,06%</t>
-  </si>
-  <si>
-    <t>46,65%</t>
-  </si>
-  <si>
-    <t>57,62%</t>
-  </si>
-  <si>
-    <t>46,17%</t>
-  </si>
-  <si>
-    <t>39,37%</t>
-  </si>
-  <si>
-    <t>52,54%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>37,97%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>37,44%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>44,57%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>44,31%</t>
-  </si>
-  <si>
-    <t>36,16%</t>
-  </si>
-  <si>
-    <t>52,92%</t>
-  </si>
-  <si>
-    <t>47,05%</t>
-  </si>
-  <si>
-    <t>38,17%</t>
-  </si>
-  <si>
-    <t>56,77%</t>
-  </si>
-  <si>
-    <t>45,67%</t>
-  </si>
-  <si>
-    <t>39,74%</t>
-  </si>
-  <si>
-    <t>52,93%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>41,87%</t>
-  </si>
-  <si>
-    <t>46,58%</t>
-  </si>
-  <si>
-    <t>38,76%</t>
-  </si>
-  <si>
-    <t>35,49%</t>
-  </si>
-  <si>
-    <t>42,04%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>43,85%</t>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>40,26%</t>
+  </si>
+  <si>
+    <t>41,9%</t>
+  </si>
+  <si>
+    <t>46,64%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>42,11%</t>
+  </si>
+  <si>
+    <t>38,63%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>41,64%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
   </si>
   <si>
     <t>34,86%</t>
   </si>
   <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>36,21%</t>
-  </si>
-  <si>
-    <t>42,36%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
+    <t>40,94%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
   </si>
   <si>
     <t>1,92%</t>
   </si>
   <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de que le haya gustado ir al colegio en 2015 (Tasa respuesta: 47,13%)</t>
-  </si>
-  <si>
-    <t>62,17%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>82,91%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>61,41%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>65,21%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>47,1%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>59,71%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>57,49%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>41,23%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>49,28%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>42,6%</t>
-  </si>
-  <si>
-    <t>39,8%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>51,67%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>50,16%</t>
-  </si>
-  <si>
-    <t>39,17%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>47,73%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>36,64%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>44,25%</t>
-  </si>
-  <si>
-    <t>39,65%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>46,61%</t>
-  </si>
-  <si>
-    <t>38,14%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>43,71%</t>
-  </si>
-  <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>50,42%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>47,53%</t>
-  </si>
-  <si>
-    <t>41,04%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
-  </si>
-  <si>
-    <t>46,26%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>45,52%</t>
-  </si>
-  <si>
-    <t>41,66%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>50,96%</t>
-  </si>
-  <si>
-    <t>38,94%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>45,92%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>45,21%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>42,98%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>40,83%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>42,65%</t>
-  </si>
-  <si>
-    <t>47,24%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>55,49%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>46,59%</t>
-  </si>
-  <si>
-    <t>38,2%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>46,64%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>46,1%</t>
-  </si>
-  <si>
-    <t>37,72%</t>
-  </si>
-  <si>
-    <t>43,28%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>40,41%</t>
-  </si>
-  <si>
-    <t>41,9%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>38,63%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>42,99%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>41,8%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
+    <t>1,15%</t>
   </si>
 </sst>
 </file>
@@ -2603,7 +2639,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D99E7B57-AC34-4AB2-84B5-36F781114E99}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7B21707-425D-42E6-8E43-45C7AEFB4D69}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2895,13 +2931,13 @@
         <v>770</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -2910,19 +2946,19 @@
         <v>2392</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C8" s="7">
         <v>1</v>
@@ -2931,13 +2967,13 @@
         <v>961</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2949,10 +2985,10 @@
         <v>15</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -2961,13 +2997,13 @@
         <v>961</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2982,13 +3018,13 @@
         <v>13816</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H9" s="7">
         <v>19</v>
@@ -2997,13 +3033,13 @@
         <v>15037</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M9" s="7">
         <v>37</v>
@@ -3012,18 +3048,18 @@
         <v>28853</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3035,13 +3071,13 @@
         <v>10263</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="H10" s="7">
         <v>22</v>
@@ -3050,13 +3086,13 @@
         <v>14871</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="M10" s="7">
         <v>38</v>
@@ -3065,13 +3101,13 @@
         <v>25134</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3086,13 +3122,13 @@
         <v>31063</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="H11" s="7">
         <v>38</v>
@@ -3101,13 +3137,13 @@
         <v>25544</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="M11" s="7">
         <v>84</v>
@@ -3116,13 +3152,13 @@
         <v>56606</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3137,13 +3173,13 @@
         <v>19614</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="H12" s="7">
         <v>8</v>
@@ -3152,10 +3188,10 @@
         <v>5259</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>79</v>
@@ -3230,7 +3266,7 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14" s="7">
         <v>1</v>
@@ -3290,13 +3326,13 @@
         <v>66197</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H15" s="7">
         <v>73</v>
@@ -3305,13 +3341,13 @@
         <v>48979</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M15" s="7">
         <v>174</v>
@@ -3320,13 +3356,13 @@
         <v>115176</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3499,10 +3535,10 @@
         <v>127</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>92</v>
+        <v>128</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H19" s="7">
         <v>5</v>
@@ -3511,13 +3547,13 @@
         <v>3286</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M19" s="7">
         <v>17</v>
@@ -3526,19 +3562,19 @@
         <v>11112</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C20" s="7">
         <v>4</v>
@@ -3547,13 +3583,13 @@
         <v>2662</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H20" s="7">
         <v>8</v>
@@ -3562,13 +3598,13 @@
         <v>5105</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M20" s="7">
         <v>12</v>
@@ -3577,13 +3613,13 @@
         <v>7768</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3598,13 +3634,13 @@
         <v>99235</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H21" s="7">
         <v>165</v>
@@ -3613,13 +3649,13 @@
         <v>104646</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M21" s="7">
         <v>316</v>
@@ -3628,18 +3664,18 @@
         <v>203882</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3651,13 +3687,13 @@
         <v>14362</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H22" s="7">
         <v>40</v>
@@ -3666,13 +3702,13 @@
         <v>25214</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M22" s="7">
         <v>63</v>
@@ -3681,13 +3717,13 @@
         <v>39575</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3702,13 +3738,13 @@
         <v>28917</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H23" s="7">
         <v>40</v>
@@ -3717,13 +3753,13 @@
         <v>24019</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M23" s="7">
         <v>85</v>
@@ -3732,13 +3768,13 @@
         <v>52935</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3753,13 +3789,13 @@
         <v>17950</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H24" s="7">
         <v>17</v>
@@ -3768,13 +3804,13 @@
         <v>10044</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M24" s="7">
         <v>45</v>
@@ -3783,13 +3819,13 @@
         <v>27994</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>101</v>
+        <v>53</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3804,13 +3840,13 @@
         <v>2004</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -3819,13 +3855,13 @@
         <v>1781</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M25" s="7">
         <v>6</v>
@@ -3834,19 +3870,19 @@
         <v>3784</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C26" s="7">
         <v>4</v>
@@ -3855,10 +3891,10 @@
         <v>2575</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>181</v>
@@ -3873,7 +3909,7 @@
         <v>15</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>182</v>
@@ -3906,13 +3942,13 @@
         <v>65808</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H27" s="7">
         <v>100</v>
@@ -3921,13 +3957,13 @@
         <v>61057</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M27" s="7">
         <v>203</v>
@@ -3936,13 +3972,13 @@
         <v>126864</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3992,10 +4028,10 @@
         <v>193</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>80</v>
+        <v>194</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4010,13 +4046,13 @@
         <v>44774</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H29" s="7">
         <v>49</v>
@@ -4025,13 +4061,13 @@
         <v>38286</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M29" s="7">
         <v>114</v>
@@ -4040,13 +4076,13 @@
         <v>83060</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4061,13 +4097,13 @@
         <v>19617</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H30" s="7">
         <v>23</v>
@@ -4076,13 +4112,13 @@
         <v>17501</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M30" s="7">
         <v>52</v>
@@ -4091,13 +4127,13 @@
         <v>37118</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4112,13 +4148,13 @@
         <v>5572</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H31" s="7">
         <v>3</v>
@@ -4127,13 +4163,13 @@
         <v>2239</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M31" s="7">
         <v>11</v>
@@ -4142,19 +4178,19 @@
         <v>7811</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>142</v>
+        <v>221</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C32" s="7">
         <v>7</v>
@@ -4163,13 +4199,13 @@
         <v>4427</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="H32" s="7">
         <v>7</v>
@@ -4178,13 +4214,13 @@
         <v>5195</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>98</v>
+        <v>226</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="M32" s="7">
         <v>14</v>
@@ -4193,13 +4229,13 @@
         <v>9622</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4214,13 +4250,13 @@
         <v>98547</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H33" s="7">
         <v>118</v>
@@ -4229,13 +4265,13 @@
         <v>90449</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M33" s="7">
         <v>261</v>
@@ -4244,13 +4280,13 @@
         <v>188996</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4267,13 +4303,13 @@
         <v>74863</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="H34" s="7">
         <v>144</v>
@@ -4282,13 +4318,13 @@
         <v>97185</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="M34" s="7">
         <v>256</v>
@@ -4297,13 +4333,13 @@
         <v>172048</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4318,13 +4354,13 @@
         <v>152606</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="H35" s="7">
         <v>225</v>
@@ -4333,13 +4369,13 @@
         <v>151568</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="M35" s="7">
         <v>453</v>
@@ -4348,13 +4384,13 @@
         <v>304175</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4369,13 +4405,13 @@
         <v>83228</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="H36" s="7">
         <v>74</v>
@@ -4384,13 +4420,13 @@
         <v>49733</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="M36" s="7">
         <v>201</v>
@@ -4399,13 +4435,13 @@
         <v>132960</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>163</v>
+        <v>256</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4420,13 +4456,13 @@
         <v>21615</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
       <c r="H37" s="7">
         <v>14</v>
@@ -4435,13 +4471,13 @@
         <v>9438</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="M37" s="7">
         <v>46</v>
@@ -4450,19 +4486,19 @@
         <v>31052</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C38" s="7">
         <v>17</v>
@@ -4471,13 +4507,13 @@
         <v>11292</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>183</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>263</v>
+        <v>229</v>
       </c>
       <c r="H38" s="7">
         <v>18</v>
@@ -4486,13 +4522,13 @@
         <v>12244</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>139</v>
+        <v>270</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="M38" s="7">
         <v>35</v>
@@ -4501,13 +4537,13 @@
         <v>23536</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4522,13 +4558,13 @@
         <v>343604</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H39" s="7">
         <v>475</v>
@@ -4537,13 +4573,13 @@
         <v>320168</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M39" s="7">
         <v>991</v>
@@ -4552,18 +4588,18 @@
         <v>663772</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -4584,7 +4620,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A502E57E-87E4-4172-A220-2A36E02570F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B25E0DF1-D84A-469C-87A2-62E4B6B68D11}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4601,7 +4637,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4708,13 +4744,13 @@
         <v>5753</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -4723,13 +4759,13 @@
         <v>2555</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
@@ -4738,13 +4774,13 @@
         <v>8308</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4759,13 +4795,13 @@
         <v>6005</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="H5" s="7">
         <v>9</v>
@@ -4774,13 +4810,13 @@
         <v>7703</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="M5" s="7">
         <v>16</v>
@@ -4789,13 +4825,13 @@
         <v>13708</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4810,13 +4846,13 @@
         <v>2732</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -4825,13 +4861,13 @@
         <v>925</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="M6" s="7">
         <v>4</v>
@@ -4840,13 +4876,13 @@
         <v>3657</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4864,10 +4900,10 @@
         <v>15</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -4876,13 +4912,13 @@
         <v>760</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -4891,19 +4927,19 @@
         <v>760</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -4915,10 +4951,10 @@
         <v>15</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4930,10 +4966,10 @@
         <v>15</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4945,10 +4981,10 @@
         <v>15</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4963,13 +4999,13 @@
         <v>14490</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H9" s="7">
         <v>14</v>
@@ -4978,13 +5014,13 @@
         <v>11943</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M9" s="7">
         <v>30</v>
@@ -4993,18 +5029,18 @@
         <v>26433</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5016,13 +5052,13 @@
         <v>26239</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="H10" s="7">
         <v>40</v>
@@ -5031,13 +5067,13 @@
         <v>28691</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="M10" s="7">
         <v>78</v>
@@ -5046,13 +5082,13 @@
         <v>54930</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5067,13 +5103,13 @@
         <v>22699</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="H11" s="7">
         <v>27</v>
@@ -5082,13 +5118,13 @@
         <v>19016</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="M11" s="7">
         <v>61</v>
@@ -5097,13 +5133,13 @@
         <v>41715</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5118,13 +5154,13 @@
         <v>6351</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="H12" s="7">
         <v>4</v>
@@ -5133,13 +5169,13 @@
         <v>2769</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="M12" s="7">
         <v>13</v>
@@ -5148,13 +5184,13 @@
         <v>9120</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5169,13 +5205,13 @@
         <v>2252</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>331</v>
+        <v>178</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>225</v>
+        <v>338</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -5184,13 +5220,13 @@
         <v>1576</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -5199,19 +5235,19 @@
         <v>3829</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14" s="7">
         <v>1</v>
@@ -5220,13 +5256,13 @@
         <v>634</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -5235,13 +5271,13 @@
         <v>1631</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -5250,13 +5286,13 @@
         <v>2264</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5271,13 +5307,13 @@
         <v>58174</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H15" s="7">
         <v>75</v>
@@ -5286,13 +5322,13 @@
         <v>53683</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M15" s="7">
         <v>160</v>
@@ -5301,13 +5337,13 @@
         <v>111857</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5324,13 +5360,13 @@
         <v>28221</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>343</v>
+        <v>191</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="H16" s="7">
         <v>60</v>
@@ -5339,13 +5375,13 @@
         <v>39865</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>116</v>
+        <v>352</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="M16" s="7">
         <v>102</v>
@@ -5354,13 +5390,13 @@
         <v>68086</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>347</v>
+        <v>311</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5375,13 +5411,13 @@
         <v>43540</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="H17" s="7">
         <v>57</v>
@@ -5390,13 +5426,13 @@
         <v>37612</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="M17" s="7">
         <v>121</v>
@@ -5405,13 +5441,13 @@
         <v>81152</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5426,13 +5462,13 @@
         <v>12299</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="H18" s="7">
         <v>23</v>
@@ -5441,13 +5477,13 @@
         <v>15217</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="M18" s="7">
         <v>42</v>
@@ -5456,13 +5492,13 @@
         <v>27515</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5477,13 +5513,13 @@
         <v>9000</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>145</v>
+        <v>377</v>
       </c>
       <c r="H19" s="7">
         <v>5</v>
@@ -5492,13 +5528,13 @@
         <v>3374</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="M19" s="7">
         <v>19</v>
@@ -5507,19 +5543,19 @@
         <v>12374</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>92</v>
+        <v>382</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C20" s="7">
         <v>6</v>
@@ -5528,13 +5564,13 @@
         <v>4130</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -5543,13 +5579,13 @@
         <v>1767</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>184</v>
+        <v>388</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>378</v>
+        <v>274</v>
       </c>
       <c r="M20" s="7">
         <v>9</v>
@@ -5558,13 +5594,13 @@
         <v>5896</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>371</v>
+        <v>332</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>263</v>
+        <v>390</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5579,13 +5615,13 @@
         <v>97190</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H21" s="7">
         <v>148</v>
@@ -5594,13 +5630,13 @@
         <v>97833</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M21" s="7">
         <v>293</v>
@@ -5609,18 +5645,18 @@
         <v>195024</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5632,13 +5668,13 @@
         <v>31785</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>317</v>
+        <v>391</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>380</v>
+        <v>42</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="H22" s="7">
         <v>48</v>
@@ -5647,13 +5683,13 @@
         <v>31032</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>283</v>
+        <v>394</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="M22" s="7">
         <v>96</v>
@@ -5662,13 +5698,13 @@
         <v>62817</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5683,13 +5719,13 @@
         <v>17352</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="H23" s="7">
         <v>29</v>
@@ -5698,13 +5734,13 @@
         <v>19180</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>391</v>
+        <v>205</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="M23" s="7">
         <v>58</v>
@@ -5713,13 +5749,13 @@
         <v>36532</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5734,13 +5770,13 @@
         <v>10694</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="H24" s="7">
         <v>15</v>
@@ -5749,13 +5785,13 @@
         <v>9789</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>399</v>
+        <v>44</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="M24" s="7">
         <v>32</v>
@@ -5764,13 +5800,13 @@
         <v>20484</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5785,13 +5821,13 @@
         <v>4194</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>405</v>
+        <v>217</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="H25" s="7">
         <v>6</v>
@@ -5800,13 +5836,13 @@
         <v>3854</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="M25" s="7">
         <v>13</v>
@@ -5815,19 +5851,19 @@
         <v>8048</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C26" s="7">
         <v>9</v>
@@ -5836,13 +5872,13 @@
         <v>5499</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="H26" s="7">
         <v>4</v>
@@ -5851,13 +5887,13 @@
         <v>2669</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>374</v>
+        <v>428</v>
       </c>
       <c r="M26" s="7">
         <v>13</v>
@@ -5866,13 +5902,13 @@
         <v>8168</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>418</v>
+        <v>429</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>262</v>
+        <v>134</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5887,13 +5923,13 @@
         <v>69524</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H27" s="7">
         <v>102</v>
@@ -5902,13 +5938,13 @@
         <v>66524</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M27" s="7">
         <v>212</v>
@@ -5917,13 +5953,13 @@
         <v>136048</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5940,13 +5976,13 @@
         <v>26866</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>76</v>
+        <v>432</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
       <c r="H28" s="7">
         <v>42</v>
@@ -5955,13 +5991,13 @@
         <v>32387</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
       <c r="M28" s="7">
         <v>78</v>
@@ -5970,13 +6006,13 @@
         <v>59252</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5991,13 +6027,13 @@
         <v>41267</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="H29" s="7">
         <v>55</v>
@@ -6006,13 +6042,13 @@
         <v>42972</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
       <c r="M29" s="7">
         <v>113</v>
@@ -6021,13 +6057,13 @@
         <v>84238</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6042,13 +6078,13 @@
         <v>17692</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
       <c r="H30" s="7">
         <v>17</v>
@@ -6057,13 +6093,13 @@
         <v>13842</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
       <c r="M30" s="7">
         <v>41</v>
@@ -6072,13 +6108,13 @@
         <v>31534</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6093,13 +6129,13 @@
         <v>6686</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
       <c r="H31" s="7">
         <v>2</v>
@@ -6108,13 +6144,13 @@
         <v>1533</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="M31" s="7">
         <v>11</v>
@@ -6123,19 +6159,19 @@
         <v>8219</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C32" s="7">
         <v>1</v>
@@ -6144,13 +6180,13 @@
         <v>619</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>262</v>
+        <v>459</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -6159,13 +6195,13 @@
         <v>594</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
       <c r="M32" s="7">
         <v>2</v>
@@ -6174,13 +6210,13 @@
         <v>1213</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6195,13 +6231,13 @@
         <v>93130</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H33" s="7">
         <v>117</v>
@@ -6210,13 +6246,13 @@
         <v>91327</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M33" s="7">
         <v>245</v>
@@ -6225,13 +6261,13 @@
         <v>184457</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6248,13 +6284,13 @@
         <v>118864</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>13</v>
+        <v>473</v>
       </c>
       <c r="H34" s="7">
         <v>193</v>
@@ -6263,13 +6299,13 @@
         <v>134529</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>461</v>
+        <v>474</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>283</v>
+        <v>475</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="M34" s="7">
         <v>363</v>
@@ -6278,13 +6314,13 @@
         <v>253394</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>463</v>
+        <v>477</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>464</v>
+        <v>478</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>465</v>
+        <v>479</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6299,13 +6335,13 @@
         <v>130863</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>466</v>
+        <v>480</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>42</v>
+        <v>481</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>467</v>
+        <v>33</v>
       </c>
       <c r="H35" s="7">
         <v>177</v>
@@ -6314,13 +6350,13 @@
         <v>126482</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>466</v>
+        <v>480</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>468</v>
+        <v>482</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>469</v>
+        <v>483</v>
       </c>
       <c r="M35" s="7">
         <v>369</v>
@@ -6329,13 +6365,13 @@
         <v>257345</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>466</v>
+        <v>480</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>470</v>
+        <v>484</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>471</v>
+        <v>485</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6350,13 +6386,13 @@
         <v>49768</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>473</v>
+        <v>487</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>474</v>
+        <v>488</v>
       </c>
       <c r="H36" s="7">
         <v>60</v>
@@ -6365,13 +6401,13 @@
         <v>42542</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>475</v>
+        <v>489</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>476</v>
+        <v>490</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>477</v>
+        <v>491</v>
       </c>
       <c r="M36" s="7">
         <v>132</v>
@@ -6380,13 +6416,13 @@
         <v>92310</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>478</v>
+        <v>492</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>479</v>
+        <v>493</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>480</v>
+        <v>494</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6401,13 +6437,13 @@
         <v>22131</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>481</v>
+        <v>495</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>482</v>
+        <v>496</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>483</v>
+        <v>497</v>
       </c>
       <c r="H37" s="7">
         <v>16</v>
@@ -6416,13 +6452,13 @@
         <v>11097</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>484</v>
+        <v>498</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>213</v>
+        <v>499</v>
       </c>
       <c r="M37" s="7">
         <v>49</v>
@@ -6431,19 +6467,19 @@
         <v>33228</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>485</v>
+        <v>349</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>486</v>
+        <v>500</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>487</v>
+        <v>501</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C38" s="7">
         <v>17</v>
@@ -6452,13 +6488,13 @@
         <v>10881</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>488</v>
+        <v>502</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>489</v>
+        <v>503</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>490</v>
+        <v>504</v>
       </c>
       <c r="H38" s="7">
         <v>10</v>
@@ -6467,13 +6503,13 @@
         <v>6660</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>491</v>
+        <v>505</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>492</v>
+        <v>506</v>
       </c>
       <c r="M38" s="7">
         <v>27</v>
@@ -6482,13 +6518,13 @@
         <v>17542</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>493</v>
+        <v>507</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>494</v>
+        <v>508</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6503,13 +6539,13 @@
         <v>332508</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H39" s="7">
         <v>456</v>
@@ -6518,13 +6554,13 @@
         <v>321310</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M39" s="7">
         <v>940</v>
@@ -6533,18 +6569,18 @@
         <v>653818</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -6565,7 +6601,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45C6A724-55FF-41D7-8433-94CF71E75343}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{403E1A6A-9218-4EE4-B84C-EFC2F78E55C1}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6582,7 +6618,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>495</v>
+        <v>509</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6689,13 +6725,13 @@
         <v>8900</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>496</v>
+        <v>510</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>497</v>
+        <v>511</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>498</v>
+        <v>512</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -6704,13 +6740,13 @@
         <v>4520</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>499</v>
+        <v>513</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>500</v>
+        <v>514</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="M4" s="7">
         <v>15</v>
@@ -6719,13 +6755,13 @@
         <v>13419</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>358</v>
+        <v>516</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>502</v>
+        <v>517</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>503</v>
+        <v>518</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6740,13 +6776,13 @@
         <v>3321</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>504</v>
+        <v>519</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>505</v>
+        <v>173</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
@@ -6755,13 +6791,13 @@
         <v>4217</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>507</v>
+        <v>521</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>508</v>
+        <v>522</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>509</v>
+        <v>523</v>
       </c>
       <c r="M5" s="7">
         <v>10</v>
@@ -6770,13 +6806,13 @@
         <v>7538</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>510</v>
+        <v>524</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>511</v>
+        <v>525</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>113</v>
+        <v>526</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6794,10 +6830,10 @@
         <v>15</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>512</v>
+        <v>527</v>
       </c>
       <c r="H6" s="7">
         <v>4</v>
@@ -6806,13 +6842,13 @@
         <v>4174</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>513</v>
+        <v>528</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>336</v>
+        <v>529</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>514</v>
+        <v>530</v>
       </c>
       <c r="M6" s="7">
         <v>4</v>
@@ -6821,13 +6857,13 @@
         <v>4174</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>515</v>
+        <v>531</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>516</v>
+        <v>532</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>517</v>
+        <v>533</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6842,13 +6878,13 @@
         <v>1046</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>518</v>
+        <v>534</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>519</v>
+        <v>535</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -6857,13 +6893,13 @@
         <v>1016</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>520</v>
+        <v>222</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>521</v>
+        <v>536</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -6872,19 +6908,19 @@
         <v>2061</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>522</v>
+        <v>537</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>523</v>
+        <v>538</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C8" s="7">
         <v>1</v>
@@ -6893,13 +6929,13 @@
         <v>1047</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>60</v>
+        <v>540</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -6911,10 +6947,10 @@
         <v>15</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>473</v>
+        <v>541</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -6923,13 +6959,13 @@
         <v>1047</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>525</v>
+        <v>542</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>526</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6944,13 +6980,13 @@
         <v>14314</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H9" s="7">
         <v>15</v>
@@ -6959,13 +6995,13 @@
         <v>13926</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M9" s="7">
         <v>32</v>
@@ -6974,18 +7010,18 @@
         <v>28240</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -6997,13 +7033,13 @@
         <v>18486</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>527</v>
+        <v>543</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>528</v>
+        <v>544</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>529</v>
+        <v>545</v>
       </c>
       <c r="H10" s="7">
         <v>31</v>
@@ -7012,13 +7048,13 @@
         <v>21968</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>530</v>
+        <v>546</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>531</v>
+        <v>547</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>532</v>
+        <v>548</v>
       </c>
       <c r="M10" s="7">
         <v>55</v>
@@ -7027,13 +7063,13 @@
         <v>40453</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>533</v>
+        <v>549</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>534</v>
+        <v>550</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>535</v>
+        <v>551</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7048,13 +7084,13 @@
         <v>23604</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>536</v>
+        <v>552</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>537</v>
+        <v>553</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>538</v>
+        <v>554</v>
       </c>
       <c r="H11" s="7">
         <v>31</v>
@@ -7063,13 +7099,13 @@
         <v>21920</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>539</v>
+        <v>555</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>540</v>
+        <v>556</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>541</v>
+        <v>557</v>
       </c>
       <c r="M11" s="7">
         <v>61</v>
@@ -7078,13 +7114,13 @@
         <v>45524</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>542</v>
+        <v>558</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>543</v>
+        <v>559</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>544</v>
+        <v>560</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7099,13 +7135,13 @@
         <v>12099</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>545</v>
+        <v>561</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>546</v>
+        <v>562</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>507</v>
+        <v>563</v>
       </c>
       <c r="H12" s="7">
         <v>12</v>
@@ -7114,13 +7150,13 @@
         <v>8277</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>547</v>
+        <v>564</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>548</v>
+        <v>565</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>549</v>
+        <v>566</v>
       </c>
       <c r="M12" s="7">
         <v>28</v>
@@ -7129,13 +7165,13 @@
         <v>20376</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>550</v>
+        <v>567</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>551</v>
+        <v>568</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>523</v>
+        <v>569</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7150,13 +7186,13 @@
         <v>3698</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>552</v>
+        <v>570</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>224</v>
+        <v>571</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>553</v>
+        <v>572</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -7165,13 +7201,13 @@
         <v>3360</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>554</v>
+        <v>573</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>555</v>
+        <v>574</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>556</v>
+        <v>575</v>
       </c>
       <c r="M13" s="7">
         <v>10</v>
@@ -7180,19 +7216,19 @@
         <v>7058</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>557</v>
+        <v>576</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>558</v>
+        <v>577</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>559</v>
+        <v>578</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14" s="7">
         <v>2</v>
@@ -7201,13 +7237,13 @@
         <v>1426</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>405</v>
+        <v>579</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>560</v>
+        <v>580</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -7216,13 +7252,13 @@
         <v>1390</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>561</v>
+        <v>581</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>562</v>
+        <v>465</v>
       </c>
       <c r="M14" s="7">
         <v>4</v>
@@ -7231,13 +7267,13 @@
         <v>2817</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>563</v>
+        <v>582</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>565</v>
+        <v>296</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7252,13 +7288,13 @@
         <v>59313</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H15" s="7">
         <v>81</v>
@@ -7267,13 +7303,13 @@
         <v>56915</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M15" s="7">
         <v>158</v>
@@ -7282,13 +7318,13 @@
         <v>116228</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -7305,13 +7341,13 @@
         <v>39192</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>566</v>
+        <v>584</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>567</v>
+        <v>585</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>568</v>
+        <v>586</v>
       </c>
       <c r="H16" s="7">
         <v>63</v>
@@ -7320,13 +7356,13 @@
         <v>41964</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>569</v>
+        <v>587</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>570</v>
+        <v>299</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>571</v>
+        <v>588</v>
       </c>
       <c r="M16" s="7">
         <v>120</v>
@@ -7335,13 +7371,13 @@
         <v>81156</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>572</v>
+        <v>589</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>573</v>
+        <v>590</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>574</v>
+        <v>591</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7356,13 +7392,13 @@
         <v>45420</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>575</v>
+        <v>592</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>576</v>
+        <v>593</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>577</v>
+        <v>594</v>
       </c>
       <c r="H17" s="7">
         <v>64</v>
@@ -7371,13 +7407,13 @@
         <v>41910</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>578</v>
+        <v>595</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>579</v>
+        <v>596</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
       <c r="M17" s="7">
         <v>129</v>
@@ -7386,13 +7422,13 @@
         <v>87329</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>582</v>
+        <v>599</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>583</v>
+        <v>600</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7407,13 +7443,13 @@
         <v>17955</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>584</v>
+        <v>601</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>585</v>
+        <v>602</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>586</v>
+        <v>603</v>
       </c>
       <c r="H18" s="7">
         <v>27</v>
@@ -7422,13 +7458,13 @@
         <v>17121</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>587</v>
+        <v>604</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>588</v>
+        <v>490</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>589</v>
+        <v>605</v>
       </c>
       <c r="M18" s="7">
         <v>53</v>
@@ -7437,13 +7473,13 @@
         <v>35076</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>590</v>
+        <v>606</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>359</v>
+        <v>607</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>591</v>
+        <v>608</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7458,13 +7494,13 @@
         <v>3721</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>592</v>
+        <v>609</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>593</v>
+        <v>610</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>372</v>
+        <v>611</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -7473,13 +7509,13 @@
         <v>2586</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>561</v>
+        <v>581</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>594</v>
+        <v>612</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>595</v>
+        <v>613</v>
       </c>
       <c r="M19" s="7">
         <v>9</v>
@@ -7488,19 +7524,19 @@
         <v>6307</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>596</v>
+        <v>230</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>597</v>
+        <v>614</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>213</v>
+        <v>615</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C20" s="7">
         <v>1</v>
@@ -7509,13 +7545,13 @@
         <v>690</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>598</v>
+        <v>616</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -7524,13 +7560,13 @@
         <v>2250</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>484</v>
+        <v>617</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>599</v>
+        <v>618</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>254</v>
+        <v>619</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -7539,13 +7575,13 @@
         <v>2940</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>600</v>
+        <v>332</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>601</v>
+        <v>620</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>602</v>
+        <v>621</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7560,13 +7596,13 @@
         <v>106978</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H21" s="7">
         <v>161</v>
@@ -7575,13 +7611,13 @@
         <v>105830</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M21" s="7">
         <v>315</v>
@@ -7590,18 +7626,18 @@
         <v>212808</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7613,13 +7649,13 @@
         <v>28178</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>603</v>
+        <v>622</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>604</v>
+        <v>623</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>605</v>
+        <v>624</v>
       </c>
       <c r="H22" s="7">
         <v>47</v>
@@ -7628,13 +7664,13 @@
         <v>29874</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>606</v>
+        <v>625</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>607</v>
+        <v>626</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>608</v>
+        <v>627</v>
       </c>
       <c r="M22" s="7">
         <v>87</v>
@@ -7643,13 +7679,13 @@
         <v>58052</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>609</v>
+        <v>628</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>610</v>
+        <v>629</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>611</v>
+        <v>630</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7664,13 +7700,13 @@
         <v>27752</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>612</v>
+        <v>631</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>613</v>
+        <v>632</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>614</v>
+        <v>633</v>
       </c>
       <c r="H23" s="7">
         <v>36</v>
@@ -7679,13 +7715,13 @@
         <v>23809</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>615</v>
+        <v>634</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>616</v>
+        <v>635</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>617</v>
+        <v>636</v>
       </c>
       <c r="M23" s="7">
         <v>74</v>
@@ -7694,13 +7730,13 @@
         <v>51561</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>618</v>
+        <v>637</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>619</v>
+        <v>638</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>620</v>
+        <v>639</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7715,13 +7751,13 @@
         <v>17108</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>621</v>
+        <v>640</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>622</v>
+        <v>641</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>120</v>
+        <v>642</v>
       </c>
       <c r="H24" s="7">
         <v>22</v>
@@ -7730,13 +7766,13 @@
         <v>14027</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>623</v>
+        <v>643</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>624</v>
+        <v>644</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>625</v>
+        <v>645</v>
       </c>
       <c r="M24" s="7">
         <v>46</v>
@@ -7745,13 +7781,13 @@
         <v>31135</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>626</v>
+        <v>646</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>627</v>
+        <v>647</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>628</v>
+        <v>648</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7766,13 +7802,13 @@
         <v>2218</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>629</v>
+        <v>649</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>630</v>
+        <v>650</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -7781,13 +7817,13 @@
         <v>2685</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>631</v>
+        <v>651</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>632</v>
+        <v>342</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>633</v>
+        <v>430</v>
       </c>
       <c r="M25" s="7">
         <v>7</v>
@@ -7796,19 +7832,19 @@
         <v>4903</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>634</v>
+        <v>94</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>635</v>
+        <v>501</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C26" s="7">
         <v>3</v>
@@ -7817,13 +7853,13 @@
         <v>2099</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>636</v>
+        <v>652</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>637</v>
+        <v>653</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>638</v>
+        <v>654</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -7832,13 +7868,13 @@
         <v>1314</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>639</v>
+        <v>655</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>640</v>
+        <v>656</v>
       </c>
       <c r="M26" s="7">
         <v>5</v>
@@ -7847,13 +7883,13 @@
         <v>3413</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>641</v>
+        <v>657</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>629</v>
+        <v>649</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>642</v>
+        <v>658</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7868,13 +7904,13 @@
         <v>77355</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H27" s="7">
         <v>111</v>
@@ -7883,13 +7919,13 @@
         <v>71710</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M27" s="7">
         <v>219</v>
@@ -7898,13 +7934,13 @@
         <v>149065</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7921,13 +7957,13 @@
         <v>34535</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>643</v>
+        <v>659</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>644</v>
+        <v>660</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>645</v>
+        <v>661</v>
       </c>
       <c r="H28" s="7">
         <v>68</v>
@@ -7936,13 +7972,13 @@
         <v>50825</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>646</v>
+        <v>662</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>648</v>
+        <v>664</v>
       </c>
       <c r="M28" s="7">
         <v>113</v>
@@ -7951,13 +7987,13 @@
         <v>85360</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>649</v>
+        <v>665</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>315</v>
+        <v>666</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>650</v>
+        <v>667</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7972,13 +8008,13 @@
         <v>38748</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>651</v>
+        <v>668</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>652</v>
+        <v>669</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>653</v>
+        <v>670</v>
       </c>
       <c r="H29" s="7">
         <v>51</v>
@@ -7987,13 +8023,13 @@
         <v>40087</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>654</v>
+        <v>671</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>655</v>
+        <v>672</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>656</v>
+        <v>560</v>
       </c>
       <c r="M29" s="7">
         <v>104</v>
@@ -8002,13 +8038,13 @@
         <v>78835</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>657</v>
+        <v>673</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>425</v>
+        <v>674</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>658</v>
+        <v>675</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8023,13 +8059,13 @@
         <v>19666</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>659</v>
+        <v>676</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>660</v>
+        <v>677</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>661</v>
+        <v>678</v>
       </c>
       <c r="H30" s="7">
         <v>15</v>
@@ -8038,13 +8074,13 @@
         <v>11602</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>662</v>
+        <v>679</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>664</v>
+        <v>681</v>
       </c>
       <c r="M30" s="7">
         <v>42</v>
@@ -8053,13 +8089,13 @@
         <v>31268</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>665</v>
+        <v>682</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>666</v>
+        <v>683</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>667</v>
+        <v>211</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8074,13 +8110,13 @@
         <v>6461</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>668</v>
+        <v>684</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>227</v>
+        <v>685</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>585</v>
+        <v>686</v>
       </c>
       <c r="H31" s="7">
         <v>5</v>
@@ -8089,13 +8125,13 @@
         <v>3600</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>669</v>
+        <v>687</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>670</v>
+        <v>688</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>671</v>
+        <v>537</v>
       </c>
       <c r="M31" s="7">
         <v>14</v>
@@ -8104,19 +8140,19 @@
         <v>10061</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>672</v>
+        <v>689</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>673</v>
+        <v>652</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>674</v>
+        <v>690</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C32" s="7">
         <v>3</v>
@@ -8125,13 +8161,13 @@
         <v>2019</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>675</v>
+        <v>691</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>564</v>
+        <v>692</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>676</v>
+        <v>78</v>
       </c>
       <c r="H32" s="7">
         <v>2</v>
@@ -8140,13 +8176,13 @@
         <v>1477</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>677</v>
+        <v>693</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>678</v>
+        <v>689</v>
       </c>
       <c r="M32" s="7">
         <v>5</v>
@@ -8155,13 +8191,13 @@
         <v>3496</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>679</v>
+        <v>694</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>680</v>
+        <v>467</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>681</v>
+        <v>695</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8176,13 +8212,13 @@
         <v>101429</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H33" s="7">
         <v>141</v>
@@ -8191,13 +8227,13 @@
         <v>107592</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M33" s="7">
         <v>278</v>
@@ -8206,13 +8242,13 @@
         <v>209021</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8229,13 +8265,13 @@
         <v>129291</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>682</v>
+        <v>696</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>683</v>
+        <v>697</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>684</v>
+        <v>698</v>
       </c>
       <c r="H34" s="7">
         <v>214</v>
@@ -8244,13 +8280,13 @@
         <v>149151</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>685</v>
+        <v>699</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>686</v>
+        <v>165</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>687</v>
+        <v>700</v>
       </c>
       <c r="M34" s="7">
         <v>390</v>
@@ -8259,13 +8295,13 @@
         <v>278442</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>689</v>
+        <v>471</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>461</v>
+        <v>702</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8280,13 +8316,13 @@
         <v>138845</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>690</v>
+        <v>703</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>691</v>
+        <v>704</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>692</v>
+        <v>705</v>
       </c>
       <c r="H35" s="7">
         <v>187</v>
@@ -8295,13 +8331,13 @@
         <v>131942</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>693</v>
+        <v>706</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>694</v>
+        <v>707</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>695</v>
+        <v>708</v>
       </c>
       <c r="M35" s="7">
         <v>378</v>
@@ -8310,13 +8346,13 @@
         <v>270788</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>696</v>
+        <v>709</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>697</v>
+        <v>710</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>62</v>
+        <v>711</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8331,13 +8367,13 @@
         <v>66828</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>698</v>
+        <v>712</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>699</v>
+        <v>369</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>700</v>
+        <v>713</v>
       </c>
       <c r="H36" s="7">
         <v>80</v>
@@ -8346,13 +8382,13 @@
         <v>55201</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>701</v>
+        <v>714</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>702</v>
+        <v>575</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>703</v>
+        <v>715</v>
       </c>
       <c r="M36" s="7">
         <v>173</v>
@@ -8361,13 +8397,13 @@
         <v>122029</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>704</v>
+        <v>716</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>705</v>
+        <v>717</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>706</v>
+        <v>676</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8382,13 +8418,13 @@
         <v>17144</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>707</v>
+        <v>718</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>708</v>
+        <v>719</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>49</v>
+        <v>720</v>
       </c>
       <c r="H37" s="7">
         <v>19</v>
@@ -8397,13 +8433,13 @@
         <v>13247</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>709</v>
+        <v>721</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>710</v>
+        <v>722</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>711</v>
+        <v>723</v>
       </c>
       <c r="M37" s="7">
         <v>42</v>
@@ -8412,19 +8448,19 @@
         <v>30390</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>712</v>
+        <v>724</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>713</v>
+        <v>725</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C38" s="7">
         <v>10</v>
@@ -8436,10 +8472,10 @@
         <v>183</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>714</v>
+        <v>172</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>492</v>
+        <v>726</v>
       </c>
       <c r="H38" s="7">
         <v>9</v>
@@ -8448,13 +8484,13 @@
         <v>6432</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>715</v>
+        <v>727</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>716</v>
+        <v>134</v>
       </c>
       <c r="M38" s="7">
         <v>19</v>
@@ -8463,13 +8499,13 @@
         <v>13713</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>489</v>
+        <v>728</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>94</v>
+        <v>729</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>717</v>
+        <v>306</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8484,13 +8520,13 @@
         <v>359389</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H39" s="7">
         <v>509</v>
@@ -8499,13 +8535,13 @@
         <v>355972</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M39" s="7">
         <v>1002</v>
@@ -8514,18 +8550,18 @@
         <v>715362</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
